--- a/Brush/工作簿1.xlsx
+++ b/Brush/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sun_j\Desktop\Brush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\GitHub\Brush-Ticket\Brush\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$12</definedName>
-    <definedName name="info" localSheetId="0">Sheet1!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$17</definedName>
+    <definedName name="info" localSheetId="0">Sheet1!$A$1:$C$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="info" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="936" sourceFile="C:\Users\sun_j\Desktop\Brush\info.txt" space="1" consecutive="1" delimiter=":">
+    <textPr codePage="936" sourceFile="D:\Program Files\GitHub\Brush-Ticket\Brush\info.txt" space="1" consecutive="1" delimiter=":">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="1">
   <si>
     <t>赞</t>
   </si>
@@ -378,25 +378,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>83</v>
+        <v>476</v>
       </c>
       <c r="B1">
-        <v>500875</v>
+        <v>1012817</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -404,10 +404,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>476</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>265075</v>
+        <v>504088</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -415,10 +415,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="B3">
-        <v>100488</v>
+        <v>130468</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>838</v>
+        <v>127</v>
       </c>
       <c r="B4">
-        <v>31724</v>
+        <v>101939</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B5">
-        <v>20914</v>
+        <v>88024</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B6">
-        <v>12113</v>
+        <v>20956</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>689</v>
+        <v>842</v>
       </c>
       <c r="B7">
-        <v>10744</v>
+        <v>13500</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8">
-        <v>10661</v>
+        <v>12696</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="B9">
-        <v>10622</v>
+        <v>12205</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>178</v>
+        <v>836</v>
       </c>
       <c r="B10">
-        <v>10307</v>
+        <v>12108</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>837</v>
       </c>
       <c r="B11">
-        <v>10151</v>
+        <v>11498</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -514,17 +514,72 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
+        <v>689</v>
+      </c>
+      <c r="B12">
+        <v>11272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>11018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>811</v>
       </c>
-      <c r="B12">
-        <v>10093</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14">
+        <v>10642</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>840</v>
+      </c>
+      <c r="B15">
+        <v>10569</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>381</v>
+      </c>
+      <c r="B16">
+        <v>10507</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>417</v>
+      </c>
+      <c r="B17">
+        <v>10303</v>
+      </c>
+      <c r="C17" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C12">
+  <sortState ref="A1:C17">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
